--- a/results/1/1_CC_rewards.xlsx
+++ b/results/1/1_CC_rewards.xlsx
@@ -423,41 +423,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-221.16</v>
-      </c>
-      <c r="C2">
-        <v>-221.16</v>
-      </c>
-      <c r="D2">
-        <v>-221.16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-221.16</v>
-      </c>
-      <c r="C3">
-        <v>-120.31</v>
-      </c>
-      <c r="D3">
-        <v>-99.15000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-221.16</v>
-      </c>
-      <c r="C4">
-        <v>-90.14</v>
-      </c>
-      <c r="D4">
-        <v>-87.89</v>
+        <v>-283.47</v>
+      </c>
+      <c r="C2">
+        <v>-283.47</v>
+      </c>
+      <c r="D2">
+        <v>-283.47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-283.47</v>
+      </c>
+      <c r="C3">
+        <v>-29.8</v>
+      </c>
+      <c r="D3">
+        <v>-24.65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-283.47</v>
+      </c>
+      <c r="C4">
+        <v>-5.18</v>
+      </c>
+      <c r="D4">
+        <v>-24.37</v>
       </c>
     </row>
   </sheetData>
@@ -492,41 +492,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-98.75</v>
-      </c>
-      <c r="C2">
-        <v>-96.94</v>
-      </c>
-      <c r="D2">
-        <v>-221.16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-106.42</v>
-      </c>
-      <c r="C3">
-        <v>-119.47</v>
-      </c>
-      <c r="D3">
-        <v>-221.16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-67.03</v>
-      </c>
-      <c r="C4">
-        <v>-106.52</v>
-      </c>
-      <c r="D4">
-        <v>-221.16</v>
+        <v>-15.26</v>
+      </c>
+      <c r="C2">
+        <v>-16.1</v>
+      </c>
+      <c r="D2">
+        <v>-283.47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-23.74</v>
+      </c>
+      <c r="C3">
+        <v>-1.3</v>
+      </c>
+      <c r="D3">
+        <v>-283.47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>5.42</v>
+      </c>
+      <c r="C4">
+        <v>-5.44</v>
+      </c>
+      <c r="D4">
+        <v>-283.47</v>
       </c>
     </row>
   </sheetData>
@@ -561,41 +561,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-221.16</v>
-      </c>
-      <c r="C2">
-        <v>-99.67</v>
-      </c>
-      <c r="D2">
-        <v>-97.54000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-221.16</v>
-      </c>
-      <c r="C3">
-        <v>-94.20999999999999</v>
-      </c>
-      <c r="D3">
-        <v>-75.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-221.16</v>
-      </c>
-      <c r="C4">
-        <v>-98.26000000000001</v>
-      </c>
-      <c r="D4">
-        <v>-44.6</v>
+        <v>-283.47</v>
+      </c>
+      <c r="C2">
+        <v>-29.67</v>
+      </c>
+      <c r="D2">
+        <v>-42.51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-283.47</v>
+      </c>
+      <c r="C3">
+        <v>-13.14</v>
+      </c>
+      <c r="D3">
+        <v>-4.81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-283.47</v>
+      </c>
+      <c r="C4">
+        <v>-24.5</v>
+      </c>
+      <c r="D4">
+        <v>7.74</v>
       </c>
     </row>
   </sheetData>
@@ -630,41 +630,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-122.82</v>
-      </c>
-      <c r="C2">
-        <v>-121.65</v>
-      </c>
-      <c r="D2">
-        <v>-158.05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-113.23</v>
-      </c>
-      <c r="C3">
-        <v>-145.28</v>
-      </c>
-      <c r="D3">
-        <v>-125.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-40.95</v>
-      </c>
-      <c r="C4">
-        <v>-31.46</v>
-      </c>
-      <c r="D4">
-        <v>-147.79</v>
+        <v>-39.02</v>
+      </c>
+      <c r="C2">
+        <v>-52.88</v>
+      </c>
+      <c r="D2">
+        <v>-36.94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-61.38</v>
+      </c>
+      <c r="C3">
+        <v>-17.03</v>
+      </c>
+      <c r="D3">
+        <v>9.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-92.45999999999999</v>
+      </c>
+      <c r="C4">
+        <v>-63.13</v>
+      </c>
+      <c r="D4">
+        <v>-43.3</v>
       </c>
     </row>
   </sheetData>
@@ -699,41 +699,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-149.71</v>
-      </c>
-      <c r="C2">
-        <v>-128.38</v>
-      </c>
-      <c r="D2">
-        <v>-165.07</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-86.73999999999999</v>
-      </c>
-      <c r="C3">
-        <v>-113.45</v>
-      </c>
-      <c r="D3">
-        <v>-167.42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-60.46</v>
-      </c>
-      <c r="C4">
-        <v>-109.74</v>
-      </c>
-      <c r="D4">
-        <v>-103.61</v>
+        <v>-175.95</v>
+      </c>
+      <c r="C2">
+        <v>-51.5</v>
+      </c>
+      <c r="D2">
+        <v>-104.23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-125.45</v>
+      </c>
+      <c r="C3">
+        <v>-283.47</v>
+      </c>
+      <c r="D3">
+        <v>-97.53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-257.59</v>
+      </c>
+      <c r="C4">
+        <v>-175.99</v>
+      </c>
+      <c r="D4">
+        <v>10.64</v>
       </c>
     </row>
   </sheetData>
@@ -768,41 +768,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-93.45999999999999</v>
-      </c>
-      <c r="C2">
-        <v>-130.4</v>
-      </c>
-      <c r="D2">
-        <v>-98.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-85.37</v>
-      </c>
-      <c r="C3">
-        <v>-135.3</v>
-      </c>
-      <c r="D3">
-        <v>-88.59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-56.48</v>
-      </c>
-      <c r="C4">
-        <v>-133.4</v>
-      </c>
-      <c r="D4">
-        <v>-52.18</v>
+        <v>-82.45</v>
+      </c>
+      <c r="C2">
+        <v>-217.26</v>
+      </c>
+      <c r="D2">
+        <v>-60.86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-86.16</v>
+      </c>
+      <c r="C3">
+        <v>-127.96</v>
+      </c>
+      <c r="D3">
+        <v>-54.14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-99.91</v>
+      </c>
+      <c r="C4">
+        <v>-150.85</v>
+      </c>
+      <c r="D4">
+        <v>9.890000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -837,41 +837,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-108.28</v>
-      </c>
-      <c r="C2">
-        <v>-101.9</v>
-      </c>
-      <c r="D2">
-        <v>-221.16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-94.86</v>
-      </c>
-      <c r="C3">
-        <v>-145.98</v>
-      </c>
-      <c r="D3">
-        <v>-221.16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-85.92</v>
-      </c>
-      <c r="C4">
-        <v>-122.99</v>
-      </c>
-      <c r="D4">
-        <v>-221.16</v>
+        <v>-1.73</v>
+      </c>
+      <c r="C2">
+        <v>-11.98</v>
+      </c>
+      <c r="D2">
+        <v>-283.47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-19.96</v>
+      </c>
+      <c r="C3">
+        <v>-6.7</v>
+      </c>
+      <c r="D3">
+        <v>-283.47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-5.9</v>
+      </c>
+      <c r="C4">
+        <v>9.18</v>
+      </c>
+      <c r="D4">
+        <v>-283.47</v>
       </c>
     </row>
   </sheetData>
@@ -906,41 +906,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-221.16</v>
-      </c>
-      <c r="C2">
-        <v>-102.26</v>
-      </c>
-      <c r="D2">
-        <v>-125.59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-221.16</v>
-      </c>
-      <c r="C3">
-        <v>-31.07</v>
-      </c>
-      <c r="D3">
-        <v>-56.28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-221.16</v>
-      </c>
-      <c r="C4">
-        <v>-55.93</v>
-      </c>
-      <c r="D4">
-        <v>-67.5</v>
+        <v>-283.47</v>
+      </c>
+      <c r="C2">
+        <v>-13.04</v>
+      </c>
+      <c r="D2">
+        <v>-20.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-283.47</v>
+      </c>
+      <c r="C3">
+        <v>-4.09</v>
+      </c>
+      <c r="D3">
+        <v>-4.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-283.47</v>
+      </c>
+      <c r="C4">
+        <v>7.25</v>
+      </c>
+      <c r="D4">
+        <v>-16.55</v>
       </c>
     </row>
   </sheetData>
@@ -975,41 +975,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-64.98</v>
-      </c>
-      <c r="C2">
-        <v>-76.94</v>
-      </c>
-      <c r="D2">
-        <v>-90.37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-36.97</v>
-      </c>
-      <c r="C3">
-        <v>-45.48</v>
-      </c>
-      <c r="D3">
-        <v>-152.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-3.96</v>
-      </c>
-      <c r="C4">
-        <v>-59.19</v>
-      </c>
-      <c r="D4">
-        <v>-115.38</v>
+        <v>-21.21</v>
+      </c>
+      <c r="C2">
+        <v>-67.04000000000001</v>
+      </c>
+      <c r="D2">
+        <v>-46.78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-60.54</v>
+      </c>
+      <c r="C3">
+        <v>-33.63</v>
+      </c>
+      <c r="D3">
+        <v>-38.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>13.51</v>
+      </c>
+      <c r="C4">
+        <v>-8.02</v>
+      </c>
+      <c r="D4">
+        <v>-51.83</v>
       </c>
     </row>
   </sheetData>
@@ -1044,41 +1044,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-98.56999999999999</v>
-      </c>
-      <c r="C2">
-        <v>-98.37</v>
-      </c>
-      <c r="D2">
-        <v>-138.34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-48.72</v>
-      </c>
-      <c r="C3">
-        <v>-104.08</v>
-      </c>
-      <c r="D3">
-        <v>-167.74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-18.09</v>
-      </c>
-      <c r="C4">
-        <v>-108.64</v>
-      </c>
-      <c r="D4">
-        <v>-77.40000000000001</v>
+        <v>-3.1</v>
+      </c>
+      <c r="C2">
+        <v>-60.73</v>
+      </c>
+      <c r="D2">
+        <v>-44.58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-6.92</v>
+      </c>
+      <c r="C3">
+        <v>-39.01</v>
+      </c>
+      <c r="D3">
+        <v>-44.86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>12.25</v>
+      </c>
+      <c r="C4">
+        <v>-98.48</v>
+      </c>
+      <c r="D4">
+        <v>-57.27</v>
       </c>
     </row>
   </sheetData>
@@ -1113,41 +1113,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-108.65</v>
-      </c>
-      <c r="C2">
-        <v>-85.37</v>
-      </c>
-      <c r="D2">
-        <v>-140.63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-49.61</v>
-      </c>
-      <c r="C3">
-        <v>-139.1</v>
-      </c>
-      <c r="D3">
-        <v>-112.39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-114.65</v>
-      </c>
-      <c r="C4">
-        <v>-94.58</v>
-      </c>
-      <c r="D4">
-        <v>-150.03</v>
+        <v>-9.81</v>
+      </c>
+      <c r="C2">
+        <v>-6.82</v>
+      </c>
+      <c r="D2">
+        <v>-49.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-18.26</v>
+      </c>
+      <c r="C3">
+        <v>-44.46</v>
+      </c>
+      <c r="D3">
+        <v>-8.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>11.02</v>
+      </c>
+      <c r="C4">
+        <v>-65.93000000000001</v>
+      </c>
+      <c r="D4">
+        <v>-17.62</v>
       </c>
     </row>
   </sheetData>
@@ -1182,41 +1182,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-221.16</v>
-      </c>
-      <c r="C2">
-        <v>-221.16</v>
-      </c>
-      <c r="D2">
-        <v>-221.16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-85.66</v>
-      </c>
-      <c r="C3">
-        <v>-116.66</v>
-      </c>
-      <c r="D3">
-        <v>-130.08</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-94.91</v>
-      </c>
-      <c r="C4">
-        <v>-103.43</v>
-      </c>
-      <c r="D4">
-        <v>-112.33</v>
+        <v>-283.47</v>
+      </c>
+      <c r="C2">
+        <v>-283.47</v>
+      </c>
+      <c r="D2">
+        <v>-283.47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-12.41</v>
+      </c>
+      <c r="C3">
+        <v>-39.44</v>
+      </c>
+      <c r="D3">
+        <v>-8.66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-12.78</v>
+      </c>
+      <c r="C4">
+        <v>-11.63</v>
+      </c>
+      <c r="D4">
+        <v>-13.98</v>
       </c>
     </row>
   </sheetData>
@@ -1251,41 +1251,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-104.54</v>
-      </c>
-      <c r="C2">
-        <v>-156.09</v>
-      </c>
-      <c r="D2">
-        <v>-221.16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-70.33</v>
-      </c>
-      <c r="C3">
-        <v>-164.92</v>
-      </c>
-      <c r="D3">
-        <v>-221.16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-106.37</v>
-      </c>
-      <c r="C4">
-        <v>-97.61</v>
-      </c>
-      <c r="D4">
-        <v>-221.16</v>
+        <v>-11.26</v>
+      </c>
+      <c r="C2">
+        <v>-3.26</v>
+      </c>
+      <c r="D2">
+        <v>-283.47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>5.32</v>
+      </c>
+      <c r="C3">
+        <v>-6.62</v>
+      </c>
+      <c r="D3">
+        <v>-283.47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-0.87</v>
+      </c>
+      <c r="C4">
+        <v>11.15</v>
+      </c>
+      <c r="D4">
+        <v>-283.47</v>
       </c>
     </row>
   </sheetData>
@@ -1320,41 +1320,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-221.16</v>
-      </c>
-      <c r="C2">
-        <v>-221.16</v>
-      </c>
-      <c r="D2">
-        <v>-221.16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-221.16</v>
-      </c>
-      <c r="C3">
-        <v>-221.16</v>
-      </c>
-      <c r="D3">
-        <v>-221.16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-221.16</v>
-      </c>
-      <c r="C4">
-        <v>-221.16</v>
-      </c>
-      <c r="D4">
-        <v>-221.16</v>
+        <v>-283.47</v>
+      </c>
+      <c r="C2">
+        <v>-283.47</v>
+      </c>
+      <c r="D2">
+        <v>-283.47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-283.47</v>
+      </c>
+      <c r="C3">
+        <v>-283.47</v>
+      </c>
+      <c r="D3">
+        <v>-283.47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-283.47</v>
+      </c>
+      <c r="C4">
+        <v>-283.47</v>
+      </c>
+      <c r="D4">
+        <v>-283.47</v>
       </c>
     </row>
   </sheetData>
@@ -1389,41 +1389,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-65.27</v>
-      </c>
-      <c r="C2">
-        <v>-78.91</v>
-      </c>
-      <c r="D2">
-        <v>-138.98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-54.11</v>
-      </c>
-      <c r="C3">
-        <v>-89.19</v>
-      </c>
-      <c r="D3">
-        <v>-98.29000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-221.16</v>
-      </c>
-      <c r="C4">
-        <v>-221.16</v>
-      </c>
-      <c r="D4">
-        <v>-221.16</v>
+        <v>5.99</v>
+      </c>
+      <c r="C2">
+        <v>3.27</v>
+      </c>
+      <c r="D2">
+        <v>7.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>11.38</v>
+      </c>
+      <c r="C3">
+        <v>3.12</v>
+      </c>
+      <c r="D3">
+        <v>4.52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-283.47</v>
+      </c>
+      <c r="C4">
+        <v>-283.47</v>
+      </c>
+      <c r="D4">
+        <v>-283.47</v>
       </c>
     </row>
   </sheetData>
@@ -1458,41 +1458,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-71.62</v>
-      </c>
-      <c r="C2">
-        <v>-89.62</v>
-      </c>
-      <c r="D2">
-        <v>-130.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-100.75</v>
-      </c>
-      <c r="C3">
-        <v>-130.52</v>
-      </c>
-      <c r="D3">
-        <v>-146.12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-221.16</v>
-      </c>
-      <c r="C4">
-        <v>-221.16</v>
-      </c>
-      <c r="D4">
-        <v>-221.16</v>
+        <v>7.65</v>
+      </c>
+      <c r="C2">
+        <v>11.84</v>
+      </c>
+      <c r="D2">
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>6.22</v>
+      </c>
+      <c r="C3">
+        <v>-1.18</v>
+      </c>
+      <c r="D3">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-283.47</v>
+      </c>
+      <c r="C4">
+        <v>-283.47</v>
+      </c>
+      <c r="D4">
+        <v>-283.47</v>
       </c>
     </row>
   </sheetData>
@@ -1527,41 +1527,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-62.46</v>
-      </c>
-      <c r="C2">
-        <v>-166.36</v>
-      </c>
-      <c r="D2">
-        <v>-54.01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-74.52</v>
-      </c>
-      <c r="C3">
-        <v>-106.22</v>
-      </c>
-      <c r="D3">
-        <v>-106.74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-221.16</v>
-      </c>
-      <c r="C4">
-        <v>-221.16</v>
-      </c>
-      <c r="D4">
-        <v>-221.16</v>
+        <v>1.78</v>
+      </c>
+      <c r="C2">
+        <v>13.42</v>
+      </c>
+      <c r="D2">
+        <v>-10.17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-3.34</v>
+      </c>
+      <c r="C3">
+        <v>3.58</v>
+      </c>
+      <c r="D3">
+        <v>-9.83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-283.47</v>
+      </c>
+      <c r="C4">
+        <v>-283.47</v>
+      </c>
+      <c r="D4">
+        <v>-283.47</v>
       </c>
     </row>
   </sheetData>
@@ -1596,41 +1596,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-107.32</v>
-      </c>
-      <c r="C2">
-        <v>-130.63</v>
-      </c>
-      <c r="D2">
-        <v>-221.16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-104.73</v>
-      </c>
-      <c r="C3">
-        <v>-114.87</v>
-      </c>
-      <c r="D3">
-        <v>-221.16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-221.16</v>
-      </c>
-      <c r="C4">
-        <v>-221.16</v>
-      </c>
-      <c r="D4">
-        <v>-221.16</v>
+        <v>11.22</v>
+      </c>
+      <c r="C2">
+        <v>-1.09</v>
+      </c>
+      <c r="D2">
+        <v>-283.47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1.26</v>
+      </c>
+      <c r="C3">
+        <v>-2.7</v>
+      </c>
+      <c r="D3">
+        <v>-283.47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-283.47</v>
+      </c>
+      <c r="C4">
+        <v>-283.47</v>
+      </c>
+      <c r="D4">
+        <v>-283.47</v>
       </c>
     </row>
   </sheetData>
@@ -1665,41 +1665,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-221.16</v>
-      </c>
-      <c r="C2">
-        <v>-221.16</v>
-      </c>
-      <c r="D2">
-        <v>-221.16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-108.09</v>
-      </c>
-      <c r="C3">
-        <v>-99.63</v>
-      </c>
-      <c r="D3">
-        <v>-162.22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-99.70999999999999</v>
-      </c>
-      <c r="C4">
-        <v>-109.02</v>
-      </c>
-      <c r="D4">
-        <v>-93.45</v>
+        <v>-283.47</v>
+      </c>
+      <c r="C2">
+        <v>-283.47</v>
+      </c>
+      <c r="D2">
+        <v>-283.47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-5.92</v>
+      </c>
+      <c r="C3">
+        <v>-2.2</v>
+      </c>
+      <c r="D3">
+        <v>-16.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>7.78</v>
+      </c>
+      <c r="C4">
+        <v>-12.34</v>
+      </c>
+      <c r="D4">
+        <v>-1.04</v>
       </c>
     </row>
   </sheetData>
@@ -1734,41 +1734,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-221.16</v>
-      </c>
-      <c r="C2">
-        <v>-221.16</v>
-      </c>
-      <c r="D2">
-        <v>-221.16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-108.1</v>
-      </c>
-      <c r="C3">
-        <v>-124.18</v>
-      </c>
-      <c r="D3">
-        <v>-95.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-117.45</v>
-      </c>
-      <c r="C4">
-        <v>-107.69</v>
-      </c>
-      <c r="D4">
-        <v>-95.47</v>
+        <v>-283.47</v>
+      </c>
+      <c r="C2">
+        <v>-283.47</v>
+      </c>
+      <c r="D2">
+        <v>-283.47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-12.24</v>
+      </c>
+      <c r="C3">
+        <v>-11.28</v>
+      </c>
+      <c r="D3">
+        <v>-14.67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-10.72</v>
+      </c>
+      <c r="C4">
+        <v>-7.23</v>
+      </c>
+      <c r="D4">
+        <v>-19.46</v>
       </c>
     </row>
   </sheetData>
@@ -1803,41 +1803,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-221.16</v>
-      </c>
-      <c r="C2">
-        <v>-221.16</v>
-      </c>
-      <c r="D2">
-        <v>-221.16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-93.45</v>
-      </c>
-      <c r="C3">
-        <v>-77.67</v>
-      </c>
-      <c r="D3">
-        <v>-221.16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-95.11</v>
-      </c>
-      <c r="C4">
-        <v>-93.62</v>
-      </c>
-      <c r="D4">
-        <v>-221.16</v>
+        <v>-283.47</v>
+      </c>
+      <c r="C2">
+        <v>-283.47</v>
+      </c>
+      <c r="D2">
+        <v>-283.47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-15.29</v>
+      </c>
+      <c r="C3">
+        <v>-15.15</v>
+      </c>
+      <c r="D3">
+        <v>-283.47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-9.890000000000001</v>
+      </c>
+      <c r="C4">
+        <v>-12.5</v>
+      </c>
+      <c r="D4">
+        <v>-283.47</v>
       </c>
     </row>
   </sheetData>
@@ -1872,41 +1872,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-221.16</v>
-      </c>
-      <c r="C2">
-        <v>-88.11</v>
-      </c>
-      <c r="D2">
-        <v>-83.02</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-221.16</v>
-      </c>
-      <c r="C3">
-        <v>-109.85</v>
-      </c>
-      <c r="D3">
-        <v>-104.55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-221.16</v>
-      </c>
-      <c r="C4">
-        <v>-87.39</v>
-      </c>
-      <c r="D4">
-        <v>-111.48</v>
+        <v>-283.47</v>
+      </c>
+      <c r="C2">
+        <v>-37.33</v>
+      </c>
+      <c r="D2">
+        <v>-22.87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-283.47</v>
+      </c>
+      <c r="C3">
+        <v>-23.32</v>
+      </c>
+      <c r="D3">
+        <v>-15.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-283.47</v>
+      </c>
+      <c r="C4">
+        <v>-5.7</v>
+      </c>
+      <c r="D4">
+        <v>-13.3</v>
       </c>
     </row>
   </sheetData>
@@ -1941,41 +1941,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-126.9</v>
-      </c>
-      <c r="C2">
-        <v>-128.65</v>
-      </c>
-      <c r="D2">
-        <v>-120.99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-74.59</v>
-      </c>
-      <c r="C3">
-        <v>-151.99</v>
-      </c>
-      <c r="D3">
-        <v>-151.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-84.03</v>
-      </c>
-      <c r="C4">
-        <v>-100.01</v>
-      </c>
-      <c r="D4">
-        <v>-127.86</v>
+        <v>-30.5</v>
+      </c>
+      <c r="C2">
+        <v>-43.13</v>
+      </c>
+      <c r="D2">
+        <v>-35.37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-43.3</v>
+      </c>
+      <c r="C3">
+        <v>-32.02</v>
+      </c>
+      <c r="D3">
+        <v>-19.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-19.06</v>
+      </c>
+      <c r="C4">
+        <v>7.47</v>
+      </c>
+      <c r="D4">
+        <v>-62.01</v>
       </c>
     </row>
   </sheetData>
@@ -2010,41 +2010,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-94.36</v>
-      </c>
-      <c r="C2">
-        <v>-76.41</v>
-      </c>
-      <c r="D2">
-        <v>-117.53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-146.58</v>
-      </c>
-      <c r="C3">
-        <v>-138.51</v>
-      </c>
-      <c r="D3">
-        <v>-142.09</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-140.1</v>
-      </c>
-      <c r="C4">
-        <v>-96.09</v>
-      </c>
-      <c r="D4">
-        <v>-221.16</v>
+        <v>-43.99</v>
+      </c>
+      <c r="C2">
+        <v>-40.04</v>
+      </c>
+      <c r="D2">
+        <v>-13.82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-26.55</v>
+      </c>
+      <c r="C3">
+        <v>-17.73</v>
+      </c>
+      <c r="D3">
+        <v>-40.46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-13.9</v>
+      </c>
+      <c r="C4">
+        <v>-15.31</v>
+      </c>
+      <c r="D4">
+        <v>8.66</v>
       </c>
     </row>
   </sheetData>
@@ -2079,41 +2079,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-102.05</v>
-      </c>
-      <c r="C2">
-        <v>-110.62</v>
-      </c>
-      <c r="D2">
-        <v>-95.15000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-121.67</v>
-      </c>
-      <c r="C3">
-        <v>-119.41</v>
-      </c>
-      <c r="D3">
-        <v>-89.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-83.11</v>
-      </c>
-      <c r="C4">
-        <v>-85.66</v>
-      </c>
-      <c r="D4">
-        <v>-106.49</v>
+        <v>-21.1</v>
+      </c>
+      <c r="C2">
+        <v>-42.16</v>
+      </c>
+      <c r="D2">
+        <v>-60.83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>9.01</v>
+      </c>
+      <c r="C3">
+        <v>-206.43</v>
+      </c>
+      <c r="D3">
+        <v>-114.94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-76.01000000000001</v>
+      </c>
+      <c r="C4">
+        <v>-32.57</v>
+      </c>
+      <c r="D4">
+        <v>-15.06</v>
       </c>
     </row>
   </sheetData>
